--- a/data/Supplementary table 2.xlsx
+++ b/data/Supplementary table 2.xlsx
@@ -12,9 +12,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirrel2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nrp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efna3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh11x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirrel3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efna4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efna5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxnb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nrp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema4g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxnd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efnb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slitrk5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirrel3os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efnb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna4os2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efnb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxnb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxnb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efna1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna4os3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slitrk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plxna4os1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt10b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epha3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcdh18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnt7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sema3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slitrk6</t>
   </si>
 </sst>
 </file>
@@ -350,895 +605,680 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5440.81654710438</v>
+        <v>0.281156998490828</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5303.56473364889</v>
+        <v>0.261698334433047</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5296.9013015262</v>
+        <v>0.248176259490878</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5291.21470584589</v>
+        <v>0.223039383542581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5276.13822487521</v>
+        <v>0.218174971468937</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5274.28037311989</v>
+        <v>0.215536168341457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5235.4768729264</v>
+        <v>0.215235439870313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5164.00945421771</v>
+        <v>0.208553322881659</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5155.48303964426</v>
+        <v>0.197477790270051</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5133.82718637955</v>
+        <v>0.194818286894923</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5117.95785290729</v>
+        <v>0.187340244665366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5091.45264059058</v>
+        <v>0.186762687578632</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5087.00882456398</v>
+        <v>0.185402122700488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5058.52474043354</v>
+        <v>0.177546518467197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5043.69408701942</v>
+        <v>0.177353109142951</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5041.31381202172</v>
+        <v>0.171953306155335</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5029.49987132654</v>
+        <v>0.170135073627639</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4998.97462847944</v>
+        <v>0.167790360226951</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4984.18697244773</v>
+        <v>0.165552721439707</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4981.24240104961</v>
+        <v>0.163779916709521</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4971.57781144054</v>
+        <v>0.163180696644945</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4948.11323024996</v>
+        <v>0.160087261870959</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4934.35323932661</v>
+        <v>0.158597011513173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4891.57467609426</v>
+        <v>0.155321121257367</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4885.53985054612</v>
+        <v>0.155209186125779</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4884.10078312491</v>
+        <v>0.138735644682244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4839.77147769501</v>
+        <v>0.127333268690356</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4835.11222844986</v>
+        <v>0.126266281639018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4829.24058987828</v>
+        <v>0.125568874381406</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4825.69713950785</v>
+        <v>0.124752769647777</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4780.91700103329</v>
+        <v>0.12004091817848</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4777.87499946322</v>
+        <v>0.117563029532338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4773.38274489038</v>
+        <v>0.111924159070375</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4767.30838052944</v>
+        <v>0.111540558496697</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4747.15243436863</v>
+        <v>0.111485107578988</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4747.03210538966</v>
+        <v>0.101959268551498</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4739.31020165593</v>
+        <v>0.10001216983904</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4734.84852928461</v>
+        <v>0.0964613026650674</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4734.18643915507</v>
+        <v>0.092397729512056</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4708.33593524927</v>
+        <v>0.0879227501245485</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4702.0795057062</v>
+        <v>0.0860669452940446</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4692.67298384141</v>
+        <v>0.0836742989345668</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4678.20869310286</v>
+        <v>0.0816458576169222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4677.04017082028</v>
+        <v>0.0799031078402631</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4646.33315660561</v>
+        <v>0.0762150001016529</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4639.59767409945</v>
+        <v>0.076208115698397</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4637.45120869263</v>
+        <v>0.0753181699340327</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4634.57879221689</v>
+        <v>0.071736899049406</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4629.67370816528</v>
+        <v>0.0671631347130383</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4619.56056203594</v>
+        <v>0.0671326750149046</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4613.1202674604</v>
+        <v>0.0668087480659025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4583.21916561603</v>
+        <v>0.0624677499048093</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4578.45083190914</v>
+        <v>0.0618892826945355</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4571.5540363952</v>
+        <v>0.0609781481836218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4539.75642671399</v>
+        <v>0.0603819645114885</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4539.35786707948</v>
+        <v>0.0601368041374063</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4487.62238195302</v>
+        <v>0.0589737926789375</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4475.58402991321</v>
+        <v>0.0585582478915343</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4445.7667768917</v>
+        <v>0.0579477132112996</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4444.76989083897</v>
+        <v>0.0578449134502613</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4434.36458140861</v>
+        <v>0.0568426334783713</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4432.93272014572</v>
+        <v>0.0566261597611998</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4428.01556430197</v>
+        <v>0.0541698927480597</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4419.17786768995</v>
+        <v>0.0535515462350771</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4410.85688460188</v>
+        <v>0.0527507730352058</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4385.99723443277</v>
+        <v>0.0492276748545446</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4382.62248797342</v>
+        <v>0.0454287036941663</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4381.10768194233</v>
+        <v>0.0452589591159664</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4379.45285091292</v>
+        <v>0.0438608819170789</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4372.2681546081</v>
+        <v>0.0424590183670096</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4369.98416089286</v>
+        <v>0.0412571424784656</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4362.00303766032</v>
+        <v>0.0400082190991916</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4297.64604414687</v>
+        <v>0.0392652943485318</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4296.66675359908</v>
+        <v>0.0386626739910702</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4286.24152283614</v>
+        <v>0.0380753189195368</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4279.32820883758</v>
+        <v>0.0339548196649996</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4262.19301578587</v>
+        <v>0.0331518337382642</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4259.83208511917</v>
+        <v>0.0300557416114002</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4253.56571782709</v>
+        <v>0.0289420419474419</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4183.99231453781</v>
+        <v>0.0284347394956673</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4121.55871820052</v>
+        <v>0.0274196514328641</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4106.94214204687</v>
+        <v>0.024855966990084</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4034.98842193976</v>
+        <v>0.0241777481744504</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3990.82610357651</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3984.75177491067</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3709.6319961811</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3130.26274106639</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2529.35925059456</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2406.15669781745</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2319.75821836177</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1774.62677622508</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1488.20814324978</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1183.30815966921</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1111.75193089138</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1108.24004249196</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>835.554972436697</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>616.946367831648</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>604.227552700614</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>536.506671970805</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>507.381128004549</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>462.988362719728</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>410.887560367115</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>409.776315536905</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>403.359052403987</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>403.197273091552</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>378.975847778458</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>332.198619306204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>325.039801834753</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>308.95781053779</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>273.417513530604</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>221.857109663854</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>219.538698461183</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>206.48912825173</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>179.097107153032</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>164.893672091229</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>154.221404811508</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>148.75376178278</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>138.982246895377</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>138.364716596671</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>136.288148329525</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>131.822818827713</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>126.47820507659</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>119.881954527687</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>113.872957706763</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>112.35657725941</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>110.072721633341</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>107.762266455861</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>106.536342134227</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>103.468535061695</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>99.9672181131224</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>94.6373748613902</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>91.5321990387809</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>86.8190561100046</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>78.7536027394972</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>68.7047718987393</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>66.5201497086129</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>57.1989490675411</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>52.9853203317645</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>52.6803054691192</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>52.4760095621179</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>51.2650192871869</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>49.8367305031463</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>49.1479948827414</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>48.88901630798</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>48.6627334518495</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>45.0739368666091</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>44.5478782406576</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>43.3767044885649</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>38.3313173673595</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>34.4954457140162</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>33.9312969977296</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>33.9049998678092</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>32.9411026537746</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>31.2483842940119</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>31.0595400561637</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>29.9008807539171</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>29.5024369894065</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>29.3693412113923</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>28.7202078208772</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>23.8039794878697</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>23.3508848973581</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>22.8097627300285</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>21.234603083242</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>0</v>
+        <v>0.0223691906764671</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
